--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,27 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,97 +431,2237 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>RACE_ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>track</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>layout</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>car_class</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>lAUa6l</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Monza Circuit</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Grand Prix</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>yhf81d</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>74Hzmh</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>VJzVQC</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>xW23wK</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Hyper Car</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1U44hN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Monza Circuit</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Grand Prix</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>DTM 1992</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ShROaa</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Monza Circuit</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Grand Prix</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>TV3na1</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>yDTSzi</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>cdPStU</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>BLjhAn</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>o073UO</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>YLYPwr</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>SiQJhp</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>hT1qew</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>fZ5g3w</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>bA8SUT</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>POJwov</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>mT9SLg</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>NUTvkB</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>CluYOg</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>QbU8I5</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>g7qqH4</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>00z9FQ</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>p80maN</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>u4KWKA</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>FlCW5h</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>SwUvSJ</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>kZu2H6</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>c9Bwmc</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>1VLBy7</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ShqCsi</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>OZO7HB</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>BJsVwr</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RnZsmZ</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>V3XJMD</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>kS3U6i</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>TpFouV</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>H4SCiW</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>lc8mRY</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>QUamkz</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>3hgaV1</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>bZVq4b</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>lE5BTM</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>s53xcg</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>pj6PrD</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>F7m526</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>iy45rp</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>duadJw</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>aWPM0u</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>dpO72g</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>cXK3VM</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>KbagvP</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>lh1nLK</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>ckp4JP</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>u34eLl</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>DCHQGb</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>N0NEgU</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>yexe61</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>xu2oRv</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>vsKFQ7</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>FFKBdB</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>s0ezvZ</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>uejJbO</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>9vK7O2</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>kOTD7V</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>TPlDq8</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>gpcgxF</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>pG03yp</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>uERgTl</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>ukjRMa</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>YjYRiq</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>8oFDm3</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>4Yt22e</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>cyF3y9</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>obeD73</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>WxsG6I</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>mJnPMK</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>XL7EAO</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>MQB9rD</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>VsYIGj</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>I04kGo</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>D1k4Oz</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>ceJyoB</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>1nvEXI</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>cC8K7E</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>l7widL</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>a3vqbF</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>klAHrj</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>pUceIu</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>3kyxET</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>8n4K42</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>DwP1AN</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>EFGTe3</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>3ntLcL</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>xjLmTs</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>ZylNCV</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>u6DOoj</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>C7qQEn</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>N2gJPs</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>hBfxEx</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>F1qZb2</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>cXWNdc</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
         <is>
           <t>GTR 3</t>
         </is>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -470,51 +470,51 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>yhf81d</t>
+          <t>ZYtNcR</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>74Hzmh</t>
+          <t>wqGCGv</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>VJzVQC</t>
+          <t>pY7vJy</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -529,80 +529,80 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>xW23wK</t>
+          <t>Z39b97</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>TV3na1</t>
+          <t>C61hPG</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>yDTSzi</t>
+          <t>Vz1pCL</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>cdPStU</t>
+          <t>Cp2aGv</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -617,24 +617,24 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BLjhAn</t>
+          <t>15NXtT</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -646,29 +646,29 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>o073UO</t>
+          <t>xUSMf2</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>YLYPwr</t>
+          <t>MpZj9p</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -683,14 +683,14 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>SiQJhp</t>
+          <t>BHwoEX</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -705,36 +705,36 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>hT1qew</t>
+          <t>bdqBLl</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>fZ5g3w</t>
+          <t>CN0vBK</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>bA8SUT</t>
+          <t>lushO5</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -778,12 +778,12 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>POJwov</t>
+          <t>08IYqj</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -793,19 +793,19 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>mT9SLg</t>
+          <t>lwHULz</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -815,19 +815,19 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>NUTvkB</t>
+          <t>W7E9E7</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -837,14 +837,14 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>CluYOg</t>
+          <t>Dh5usa</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -866,95 +866,95 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>QbU8I5</t>
+          <t>5pcOWm</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>g7qqH4</t>
+          <t>daW3ce</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>00z9FQ</t>
+          <t>sIijSd</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>p80maN</t>
+          <t>Q5cn9l</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>u4KWKA</t>
+          <t>BNiqZ7</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -964,41 +964,41 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>FlCW5h</t>
+          <t>VexwVr</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>SwUvSJ</t>
+          <t>pwS2ai</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1013,24 +1013,24 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>kZu2H6</t>
+          <t>fuzbTl</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1042,51 +1042,51 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>c9Bwmc</t>
+          <t>5ZQqhw</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>1VLBy7</t>
+          <t>44N5Hw</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>ShqCsi</t>
+          <t>fUZOso</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1101,36 +1101,36 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>OZO7HB</t>
+          <t>0wmcff</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BJsVwr</t>
+          <t>ytUANj</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>RnZsmZ</t>
+          <t>tw7tul</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1162,41 +1162,41 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>V3XJMD</t>
+          <t>0Sslcg</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>kS3U6i</t>
+          <t>rjfApZ</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1206,41 +1206,41 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>TpFouV</t>
+          <t>vjaArS</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>H4SCiW</t>
+          <t>VmOGIr</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>lc8mRY</t>
+          <t>Whaj5l</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>QUamkz</t>
+          <t>tj22ea</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3hgaV1</t>
+          <t>abmBQf</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1321,24 +1321,24 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>bZVq4b</t>
+          <t>f5P1fi</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -1350,29 +1350,29 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>lE5BTM</t>
+          <t>9AfE3x</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>s53xcg</t>
+          <t>RF1ol3</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1382,46 +1382,46 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>pj6PrD</t>
+          <t>v2cKDG</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>F7m526</t>
+          <t>o4O8GT</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1431,24 +1431,24 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>iy45rp</t>
+          <t>ZtVQkk</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>duadJw</t>
+          <t>BrbBnL</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1475,19 +1475,19 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>aWPM0u</t>
+          <t>AGd4Py</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>dpO72g</t>
+          <t>Pyj2LJ</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1519,36 +1519,36 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>cXK3VM</t>
+          <t>bYjVix</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>KbagvP</t>
+          <t>heyoBH</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1563,19 +1563,19 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>lh1nLK</t>
+          <t>LmCjlb</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1592,12 +1592,12 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>ckp4JP</t>
+          <t>QoGGDc</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1607,41 +1607,41 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>u34eLl</t>
+          <t>QqI9YO</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>DCHQGb</t>
+          <t>KYdaeh</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1651,24 +1651,24 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>N0NEgU</t>
+          <t>3RJApM</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -1680,17 +1680,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>yexe61</t>
+          <t>hyVgEa</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -1702,12 +1702,12 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>xu2oRv</t>
+          <t>y5pFwS</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -1717,63 +1717,63 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>vsKFQ7</t>
+          <t>cH1XzI</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>FFKBdB</t>
+          <t>O3uEJu</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>s0ezvZ</t>
+          <t>pAGVGI</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>uejJbO</t>
+          <t>2Hg2Kj</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1805,19 +1805,19 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>9vK7O2</t>
+          <t>qvh2FD</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -1834,12 +1834,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>kOTD7V</t>
+          <t>CGPfR8</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -1849,124 +1849,124 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>TPlDq8</t>
+          <t>c6vDVr</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>gpcgxF</t>
+          <t>pmRbLT</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>pG03yp</t>
+          <t>TtTYAO</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>uERgTl</t>
+          <t>NA9QJw</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>ukjRMa</t>
+          <t>6n4wED</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>YjYRiq</t>
+          <t>Jz4XmR</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>8oFDm3</t>
+          <t>sCcPnI</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -2003,14 +2003,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>4Yt22e</t>
+          <t>8CRnfv</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -2025,14 +2025,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>cyF3y9</t>
+          <t>N9QW8p</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -2047,14 +2047,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>obeD73</t>
+          <t>3RoSYt</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -2069,24 +2069,24 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>WxsG6I</t>
+          <t>IkQcyF</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -2098,12 +2098,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>mJnPMK</t>
+          <t>FJgzV2</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -2113,19 +2113,19 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>XL7EAO</t>
+          <t>B42VeD</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -2135,36 +2135,36 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>MQB9rD</t>
+          <t>Sq9Wtl</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>VsYIGj</t>
+          <t>uUcgrZ</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -2186,12 +2186,12 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>I04kGo</t>
+          <t>mu2VIh</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>D1k4Oz</t>
+          <t>A1ASF0</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -2230,29 +2230,29 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>ceJyoB</t>
+          <t>J8eU2L</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>1nvEXI</t>
+          <t>ZhA1us</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -2262,29 +2262,29 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>cC8K7E</t>
+          <t>kn86JD</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -2296,12 +2296,12 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>l7widL</t>
+          <t>ArAPYK</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
@@ -2311,63 +2311,63 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>a3vqbF</t>
+          <t>R9k0Qc</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>klAHrj</t>
+          <t>gbJ22u</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>pUceIu</t>
+          <t>f5fAUs</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -2384,17 +2384,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>3kyxET</t>
+          <t>J3zNfu</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
@@ -2406,34 +2406,34 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>8n4K42</t>
+          <t>vgSRfD</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>DwP1AN</t>
+          <t>6bOq50</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
@@ -2450,39 +2450,39 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>EFGTe3</t>
+          <t>yrNoLe</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>3ntLcL</t>
+          <t>vc94L9</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -2494,7 +2494,7 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>xjLmTs</t>
+          <t>AzxiWC</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -2516,12 +2516,12 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>ZylNCV</t>
+          <t>goxmHt</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -2538,12 +2538,12 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>u6DOoj</t>
+          <t>HmZ1hc</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
@@ -2553,14 +2553,14 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>C7qQEn</t>
+          <t>JLyKYK</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
@@ -2570,24 +2570,24 @@
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>N2gJPs</t>
+          <t>vXV6xD</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
@@ -2604,17 +2604,17 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>hBfxEx</t>
+          <t>VyFnJx</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
@@ -2626,12 +2626,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>F1qZb2</t>
+          <t>AMV8z7</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
@@ -2641,29 +2641,29 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>cXWNdc</t>
+          <t>BeNpWV</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
     </row>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -441,7 +441,7 @@
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -470,12 +470,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>pZBgmP</t>
+          <t>ddoS7I</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>N03IWY</t>
+          <t>K0JrTK</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -514,22 +514,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>rkxR9y</t>
+          <t>I94FmA</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
     </row>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,12 +470,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ddoS7I</t>
+          <t>1QaSmb</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -485,14 +485,14 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>K0JrTK</t>
+          <t>P5Ar6Z</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -502,34 +502,2168 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>I94FmA</t>
+          <t>ip32fZ</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RjG2ML</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5tIwr1</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>ux86oX</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>8bVxH5</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>1UKfys</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>z3pVnh</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>r64ZIE</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>UcCQ7M</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>iBaxX0</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>JpcCEA</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>8ohpQy</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>yKzs8h</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>jXKho0</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>ctPKPf</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
           <t>International</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>cAMV9l</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>iVjItI</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>K8tYHq</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>WEUJo5</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>dtY5cg</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>p8KGbW</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>fFg4dz</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Cs96l4</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>ITXJ8F</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>D1ZEoV</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>YGBY9k</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>6iBZ5i</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>hcviRI</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>8fQet2</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>CB1uTA</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>uyuW5m</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>H0Tn2i</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Gq7GZW</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>lXR07J</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>ATjYpv</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>JiWgQt</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>U43Xit</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>enjvNE</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>T6Ojyp</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>mAERwu</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>6LUqW2</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>lkIBS0</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>M1DfeP</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>b6QgTf</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>yR7A1X</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>RKOPWr</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Ug4zih</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>NIRsEl</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>HNqpyR</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>d1rUQZ</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>BhPNKe</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>BzRV0P</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>UiFAKt</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>sMNQdI</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>bfQWYE</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>21QlzX</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>RRKbAz</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>xVHcV5</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>vSNBCI</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>6RAS1F</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>5AbTAL</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>pKOH5D</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>RvVVYs</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>fyLU0D</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>R8Lvof</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>4a41Bf</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>JFLuLA</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>1HKKNW</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Oi2TeT</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>rjykR4</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>u2JtlX</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>iNXsK9</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Xqwop2</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>MGC0qj</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>ShZ0Jo</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>SuzeUM</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>XuZaWE</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>1LlSDZ</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>85V8hL</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>ZNCRwB</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>huXX4h</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>zZME1H</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>gLYHFG</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>DIk0Dv</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>KvpBHX</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>XyNtyS</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>mW5LXB</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>k2djgC</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>XhLGJ6</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>EjzpAH</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>PRzlwG</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Mp0Itj</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>9zRuzG</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>uUzgKj</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Dv2JCf</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Ej4y9S</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>nO5BSK</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>RLWELB</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
         </is>
       </c>
     </row>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,7 @@
     <col width="26" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -466,11 +467,16 @@
           <t>car_class</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>1QaSmb</t>
+          <t>4m0tFq</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -480,24 +486,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t>GTR 3</t>
         </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1763990948000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>P5Ar6Z</t>
+          <t>L7QIna</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -507,41 +516,47 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1763991055000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>ip32fZ</t>
+          <t>AQHV82</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Hyper Car</t>
         </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1763992043000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>RjG2ML</t>
+          <t>aqHhR7</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -553,56 +568,65 @@
         <is>
           <t>Hyper Car</t>
         </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1763995411000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>5tIwr1</t>
+          <t>hKLalj</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1764000852000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>ux86oX</t>
+          <t>PnWwFJ</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1764000911000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>8bVxH5</t>
+          <t>KhpH9z</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -617,19 +641,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1764001731000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>1UKfys</t>
+          <t>GQkX1q</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -639,19 +666,22 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1764003639000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>z3pVnh</t>
+          <t>9R2EFK</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -661,80 +691,92 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1764003663000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>r64ZIE</t>
+          <t>zXeK64</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>1764007091000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>UcCQ7M</t>
+          <t>x78Mem</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>1764007345000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>iBaxX0</t>
+          <t>tI1F7l</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Hyper Car</t>
         </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1764009805000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>JpcCEA</t>
+          <t>IcI6tl</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -749,41 +791,47 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1764010697000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>8ohpQy</t>
+          <t>f2MQlD</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1764010766000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>yKzs8h</t>
+          <t>jthVYH</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -793,63 +841,72 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1764013511000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>jXKho0</t>
+          <t>UikkEN</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1764016320000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>ctPKPf</t>
+          <t>QU0s2N</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>1764018906000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>cAMV9l</t>
+          <t>2drW4H</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -859,14 +916,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1764019972000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>iVjItI</t>
+          <t>9Jzp6P</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -881,19 +941,22 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>1764020734000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>K8tYHq</t>
+          <t>4T32ef</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -903,14 +966,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>1764022567000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>WEUJo5</t>
+          <t>LrCcSl</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -925,19 +991,22 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>1764024259000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>dtY5cg</t>
+          <t>ihEhir</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -947,14 +1016,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>1764026204000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>p8KGbW</t>
+          <t>Y2d4yk</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -971,12 +1043,15 @@
         <is>
           <t>WTCR</t>
         </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>1764026250000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>fFg4dz</t>
+          <t>KUUOww</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -991,36 +1066,42 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1764027831000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Cs96l4</t>
+          <t>DHBlo5</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1764027857000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ITXJ8F</t>
+          <t>Yj2yua</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1035,36 +1116,42 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>1764028882000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>D1ZEoV</t>
+          <t>xwkpTc</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1764078222000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>YGBY9k</t>
+          <t>J1ZhcM</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1079,19 +1166,22 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>1764078373000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>6iBZ5i</t>
+          <t>MX0sdF</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1101,80 +1191,92 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>1764079228000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>hcviRI</t>
+          <t>Kj0DKO</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>1764079361000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>8fQet2</t>
+          <t>9yymbf</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>1764081035000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>CB1uTA</t>
+          <t>SpvbP8</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>1764086574000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>uyuW5m</t>
+          <t>ZADHAP</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1189,14 +1291,17 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>1764089902000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>H0Tn2i</t>
+          <t>0H8ylv</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1206,24 +1311,27 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>1764094427000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Gq7GZW</t>
+          <t>rhsVZC</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1233,63 +1341,72 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1764098077000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>lXR07J</t>
+          <t>ULPAy1</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>1764100688000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>ATjYpv</t>
+          <t>cHTcKQ</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>1764102748000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>JiWgQt</t>
+          <t>GZlz1C</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1299,14 +1416,17 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>1764103380000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>U43Xit</t>
+          <t>MUr0ca</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -1321,58 +1441,67 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>1764104328000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>enjvNE</t>
+          <t>h4Z5WQ</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>1764107088000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>T6Ojyp</t>
+          <t>PedyxQ</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
           <t>Hyper Car</t>
         </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>1764108153000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>mAERwu</t>
+          <t>Pkzk13</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1387,41 +1516,47 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>1764111583000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>6LUqW2</t>
+          <t>Hq9gxf</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>1764112528000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>lkIBS0</t>
+          <t>yTn6Kb</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1431,14 +1566,17 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>1764113324000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>M1DfeP</t>
+          <t>RoleN9</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1455,17 +1593,20 @@
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>1764163966000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>b6QgTf</t>
+          <t>ff4Oo4</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -1477,61 +1618,70 @@
         <is>
           <t>WTCR</t>
         </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>1764165586000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>yR7A1X</t>
+          <t>OiGmPp</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>1764165627000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>RKOPWr</t>
+          <t>8ojGGV</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>1764168411000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Ug4zih</t>
+          <t>tVT9KQ</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1541,80 +1691,92 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>1764169159000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>NIRsEl</t>
+          <t>NxhUR5</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>1764171994000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>HNqpyR</t>
+          <t>mLS61r</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1764172971000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>d1rUQZ</t>
+          <t>RNtKYZ</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>1764176417000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BhPNKe</t>
+          <t>Vit9AV</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
@@ -1629,19 +1791,22 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>1764176573000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BzRV0P</t>
+          <t>ykijx7</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1651,58 +1816,67 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>1764179096000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>UiFAKt</t>
+          <t>7S5Xmr</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>1764180104000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>sMNQdI</t>
+          <t>ISbCfj</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>1764180882000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>bfQWYE</t>
+          <t>Javncm</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -1717,36 +1891,42 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>1764182857000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>21QlzX</t>
+          <t>gKnks9</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>1764184587000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>RRKbAz</t>
+          <t>yOR4yu</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
@@ -1756,24 +1936,27 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>1764185286000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>xVHcV5</t>
+          <t>9pyoVA</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
@@ -1785,12 +1968,15 @@
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>1764187372000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>vSNBCI</t>
+          <t>SdBdWr</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1800,19 +1986,22 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>1764189843000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>6RAS1F</t>
+          <t>a110wg</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -1827,107 +2016,122 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>1764190729000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>5AbTAL</t>
+          <t>Ju6rEN</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>1764192487000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>pKOH5D</t>
+          <t>cHv5GW</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>1764194304000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>RvVVYs</t>
+          <t>icU8fj</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>1764196183000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>fyLU0D</t>
+          <t>wHEbqO</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
           <t>GTR 3</t>
         </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>1764198035000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>R8Lvof</t>
+          <t>mkZPYP</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -1939,12 +2143,15 @@
         <is>
           <t>GTR 3</t>
         </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>1764198979000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>4a41Bf</t>
+          <t>nnJdWJ</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -1954,24 +2161,27 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>1764199012000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>JFLuLA</t>
+          <t>fBTBCt</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
@@ -1983,78 +2193,90 @@
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>1764200794000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1HKKNW</t>
+          <t>zV5YUw</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>1764201492000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Oi2TeT</t>
+          <t>mxcdgn</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>1764202424000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>rjykR4</t>
+          <t>HGqVHj</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>1764203402000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>u2JtlX</t>
+          <t>Kb5KFe</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -2069,41 +2291,47 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>1764250171000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>iNXsK9</t>
+          <t>GFq3ve</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>1764254726000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Xqwop2</t>
+          <t>OF18d0</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -2113,41 +2341,47 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>1764259999000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>MGC0qj</t>
+          <t>TRYws2</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>1764263696000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>ShZ0Jo</t>
+          <t>ULi2Dh</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -2159,12 +2393,15 @@
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>1764264615000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>SuzeUM</t>
+          <t>Cah33c</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -2174,19 +2411,22 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>1764265488000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>XuZaWE</t>
+          <t>ME7d7D</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -2196,90 +2436,102 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>1764265530000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>1LlSDZ</t>
+          <t>CU1Ifu</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
           <t>GTR 3</t>
         </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>1764268310000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>85V8hL</t>
+          <t>4LSzvO</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>1764269031000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>ZNCRwB</t>
+          <t>Jy2w9W</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>1764270159000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>huXX4h</t>
+          <t>dH9bW1</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -2289,14 +2541,17 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>1764272729000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>zZME1H</t>
+          <t>FOCEvO</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -2311,58 +2566,67 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>1764273662000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>gLYHFG</t>
+          <t>9HoZY3</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>1764275438000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>DIk0Dv</t>
+          <t>TwRlhX</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>1764277119000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>KvpBHX</t>
+          <t>dEhRaw</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -2372,63 +2636,72 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>1764280847000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>XyNtyS</t>
+          <t>ko1d5P</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
           <t>DTM 1992</t>
         </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>1764285332000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>mW5LXB</t>
+          <t>fscTFZ</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>1764288925000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>k2djgC</t>
+          <t>webZUk</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
@@ -2445,12 +2718,15 @@
         <is>
           <t>WTCR</t>
         </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>1764334965000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>XhLGJ6</t>
+          <t>lUsn0e</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -2465,124 +2741,142 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>1764336736000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>EjzpAH</t>
+          <t>eFDlOR</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>1764337396000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>PRzlwG</t>
+          <t>RIaArF</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
           <t>GTR 3</t>
         </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>1764337637000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Mp0Itj</t>
+          <t>YO5Mfk</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>1764338353000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>9zRuzG</t>
+          <t>pLp2xQ</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>1764340243000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>uUzgKj</t>
+          <t>fq6xAg</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>1764340365000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Dv2JCf</t>
+          <t>cTqZuj</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2597,19 +2891,22 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>1764348456000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Ej4y9S</t>
+          <t>LcipCP</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2619,36 +2916,42 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>1764350092000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>nO5BSK</t>
+          <t>uf0Grz</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
-        </is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>1764350100000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>RLWELB</t>
+          <t>pO6aAp</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2658,13 +2961,1516 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>1764351178000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>6rGlzc</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
           <t>Hyper Car</t>
         </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>1764352019000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>dyLBaP</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>1764352849000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>GfwfN8</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>1764358297000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>BFH4NE</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>1764359025000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>GFRRYP</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>1764359049000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>ACRlTD</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>1764366333000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>yIhlWv</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>1764368058000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>9ztOTO</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>1764370777000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>rhWQQu</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>1764371819000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>hot2Qu</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>1764373381000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>OxRh1x</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>1764376201000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>iT2mbv</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>1764376214000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>XqHb4x</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>1764421374000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>AhAVba</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>1764423041000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>RyM11d</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>1764426501000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Y5GXU5</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>1764426628000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>VJV9DU</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>1764427429000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>z8fsCf</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>1764427633000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>sqCesd</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>1764428560000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>EkNdSR</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>1764431239000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>bTKVa7</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>1764432055000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>9hXXqa</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>1764435617000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>SfMD6d</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>1764435756000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>iFhRm2</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>1764436625000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>NaeDOg</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>1764438187000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>s33uP3</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>1764439161000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>A3aGEH</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1764442801000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>iS4aLA</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>1764444572000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Oft0Lt</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>1764451027000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>FL1WJ0</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>1764452869000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>ST4pP6</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>1764458261000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>9OyGf0</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>1764460759000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>zrHZl6</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>1764460874000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>bL9jw9</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>1764512939000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>R367JI</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>1764514844000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>bIjrvz</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>1764517506000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>U3NPUk</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>1764520254000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>FHtLqA</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>1764521125000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>L0Xot6</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>1764523050000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>rzV7Eb</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>1764524778000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>lvsLaH</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>1764528321000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>5x9CCC</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>1764528379000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>AApFdF</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>1764529301000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>7qS125</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>1764532884000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>K8B27r</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>1764532953000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>fm16Z7</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>1764532959000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>eDs573</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1764533714000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>ffkc4b</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>1764533787000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>O8pEnP</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1764539034000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>4EyG1H</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1764539247000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>LQsQEM</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1764539955000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>NP9HPC</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>1764540876000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>2BmJ3y</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>1764541063000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>zW5sIA</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>1764541074000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>yBtcLQ</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>1764544418000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>GtDQXH</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>1764544602000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>m8gXSS</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>1764545291000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>1R64e8</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>1764546219000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>7nf8H6</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>1764547180000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>EeMR4f</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>1764548038000</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>4m0tFq</t>
+          <t>lee7KF</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -486,32 +486,32 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1763990948000</v>
+        <v>1763989220000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>L7QIna</t>
+          <t>OxezJB</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -520,43 +520,43 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1763991055000</v>
+        <v>1763989266000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AQHV82</t>
+          <t>Aj4cXA</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1763992043000</v>
+        <v>1763991017000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>aqHhR7</t>
+          <t>eM8LNn</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -566,52 +566,52 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1763995411000</v>
+        <v>1763991972000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>hKLalj</t>
+          <t>RnTOOi</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1764000852000</v>
+        <v>1763998338000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>PnWwFJ</t>
+          <t>erPX68</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -620,18 +620,18 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1764000911000</v>
+        <v>1763999049000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>KhpH9z</t>
+          <t>MhRTfd</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1764001731000</v>
+        <v>1764000089000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>GQkX1q</t>
+          <t>pNljL7</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -666,27 +666,27 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1764003639000</v>
+        <v>1764001884000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>9R2EFK</t>
+          <t>NUD6w4</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -695,23 +695,23 @@
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1764003663000</v>
+        <v>1764002713000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>zXeK64</t>
+          <t>GdAgkw</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -720,18 +720,18 @@
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1764007091000</v>
+        <v>1764002855000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>x78Mem</t>
+          <t>GSsloG</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -741,27 +741,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1764007345000</v>
+        <v>1764004439000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>tI1F7l</t>
+          <t>VeHDCu</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -770,18 +770,18 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1764009805000</v>
+        <v>1764007093000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>IcI6tl</t>
+          <t>EenrV8</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -795,13 +795,13 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1764010697000</v>
+        <v>1764007175000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>f2MQlD</t>
+          <t>VlLCmo</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -816,27 +816,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1764010766000</v>
+        <v>1764008085000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>jthVYH</t>
+          <t>l7XbJK</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -845,43 +845,43 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1764013511000</v>
+        <v>1764008997000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>UikkEN</t>
+          <t>M9JPa8</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1764016320000</v>
+        <v>1764008999000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>QU0s2N</t>
+          <t>ot7Ck6</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -891,22 +891,22 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1764018906000</v>
+        <v>1764009128000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2drW4H</t>
+          <t>mC4PCe</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -920,43 +920,43 @@
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1764019972000</v>
+        <v>1764009800000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>9Jzp6P</t>
+          <t>Vf9zWy</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1764020734000</v>
+        <v>1764009801000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>4T32ef</t>
+          <t>uxTp5u</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -966,47 +966,47 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1764022567000</v>
+        <v>1764009901000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>LrCcSl</t>
+          <t>qswp0R</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1764024259000</v>
+        <v>1764009950000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>ihEhir</t>
+          <t>4n9x9T</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1016,67 +1016,67 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1764026204000</v>
+        <v>1764010749000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Y2d4yk</t>
+          <t>qWz97g</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1764026250000</v>
+        <v>1764011672000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>KUUOww</t>
+          <t>M0MEIA</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1764027831000</v>
+        <v>1764011801000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>DHBlo5</t>
+          <t>hQZV9K</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1086,47 +1086,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1764027857000</v>
+        <v>1764012700000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Yj2yua</t>
+          <t>xthonL</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1764028882000</v>
+        <v>1764014325000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>xwkpTc</t>
+          <t>YNHsgm</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1764078222000</v>
+        <v>1764014374000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>J1ZhcM</t>
+          <t>HGebV7</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1166,17 +1166,17 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1764078373000</v>
+        <v>1764014566000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>MX0sdF</t>
+          <t>a2Etxx</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1191,67 +1191,67 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1764079228000</v>
+        <v>1764016338000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Kj0DKO</t>
+          <t>Nzu15D</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1764079361000</v>
+        <v>1764018112000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>9yymbf</t>
+          <t>xy9Otk</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1764081035000</v>
+        <v>1764018145000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>SpvbP8</t>
+          <t>2OleDN</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1266,17 +1266,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1764086574000</v>
+        <v>1764018804000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>ZADHAP</t>
+          <t>mIj2Lx</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1764089902000</v>
+        <v>1764018992000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>0H8ylv</t>
+          <t>XnZb6X</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -1316,22 +1316,22 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1764094427000</v>
+        <v>1764019052000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>rhsVZC</t>
+          <t>7KIN0L</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1341,42 +1341,42 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1764098077000</v>
+        <v>1764020828000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>ULPAy1</t>
+          <t>OorDHh</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1764100688000</v>
+        <v>1764021575000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>cHTcKQ</t>
+          <t>wuvioc</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1764102748000</v>
+        <v>1764021760000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GZlz1C</t>
+          <t>fBUlgO</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -1420,48 +1420,48 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1764103380000</v>
+        <v>1764022675000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>MUr0ca</t>
+          <t>58Dl7v</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1764104328000</v>
+        <v>1764027033000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>h4Z5WQ</t>
+          <t>ost4to</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -1470,48 +1470,48 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1764107088000</v>
+        <v>1764028954000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>PedyxQ</t>
+          <t>a4ct1B</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1764108153000</v>
+        <v>1764076490000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Pkzk13</t>
+          <t>PwVlZG</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -1520,23 +1520,23 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1764111583000</v>
+        <v>1764077503000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Hq9gxf</t>
+          <t>by0Aiq</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -1545,18 +1545,18 @@
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1764112528000</v>
+        <v>1764078365000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>yTn6Kb</t>
+          <t>SCz1O0</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1566,42 +1566,42 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1764113324000</v>
+        <v>1764079128000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>RoleN9</t>
+          <t>WTaRiF</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1764163966000</v>
+        <v>1764079236000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>ff4Oo4</t>
+          <t>MimWOx</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1620,38 +1620,38 @@
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1764165586000</v>
+        <v>1764079314000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>OiGmPp</t>
+          <t>UcF2qF</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1764165627000</v>
+        <v>1764080270000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>8ojGGV</t>
+          <t>BXSxf0</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
@@ -1666,42 +1666,42 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1764168411000</v>
+        <v>1764081837000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>tVT9KQ</t>
+          <t>24UkWB</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1764169159000</v>
+        <v>1764083748000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>NxhUR5</t>
+          <t>1q7Em7</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1711,47 +1711,47 @@
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1764171994000</v>
+        <v>1764083785000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>mLS61r</t>
+          <t>LQozP8</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1764172971000</v>
+        <v>1764084558000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>RNtKYZ</t>
+          <t>6r53Tc</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -1766,27 +1766,27 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1764176417000</v>
+        <v>1764086437000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Vit9AV</t>
+          <t>1w1lce</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
@@ -1795,18 +1795,18 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1764176573000</v>
+        <v>1764087351000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>ykijx7</t>
+          <t>i6U71z</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -1816,47 +1816,47 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1764179096000</v>
+        <v>1764088132000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>7S5Xmr</t>
+          <t>czxvw0</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1764180104000</v>
+        <v>1764089235000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>ISbCfj</t>
+          <t>EBAh8J</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
@@ -1866,42 +1866,42 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1764180882000</v>
+        <v>1764089937000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Javncm</t>
+          <t>7pGRct</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1764182857000</v>
+        <v>1764090171000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>gKnks9</t>
+          <t>8SLbAe</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -1916,22 +1916,22 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1764184587000</v>
+        <v>1764090956000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>yOR4yu</t>
+          <t>LoLE72</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1945,63 +1945,63 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1764185286000</v>
+        <v>1764091017000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>9pyoVA</t>
+          <t>rO6Juk</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1764187372000</v>
+        <v>1764091717000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>SdBdWr</t>
+          <t>UxGRfm</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1764189843000</v>
+        <v>1764093597000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>a110wg</t>
+          <t>HzHjKe</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -2020,13 +2020,13 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1764190729000</v>
+        <v>1764095313000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Ju6rEN</t>
+          <t>TTNTkR</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -2041,17 +2041,17 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1764192487000</v>
+        <v>1764095356000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>cHv5GW</t>
+          <t>524NGs</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
@@ -2061,22 +2061,22 @@
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1764194304000</v>
+        <v>1764096308000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>icU8fj</t>
+          <t>oxsQ2p</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -2091,17 +2091,17 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1764196183000</v>
+        <v>1764096386000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>wHEbqO</t>
+          <t>rUbEFB</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
@@ -2111,27 +2111,27 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1764198035000</v>
+        <v>1764099921000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>mkZPYP</t>
+          <t>KllKrY</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1764198979000</v>
+        <v>1764100783000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>nnJdWJ</t>
+          <t>Q1rf1E</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -2161,22 +2161,22 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1764199012000</v>
+        <v>1764100888000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>fBTBCt</t>
+          <t>NJ7XDd</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -2191,27 +2191,27 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1764200794000</v>
+        <v>1764101636000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>zV5YUw</t>
+          <t>7rEErn</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -2220,63 +2220,63 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>1764201492000</v>
+        <v>1764101766000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>mxcdgn</t>
+          <t>U4CKwW</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1764202424000</v>
+        <v>1764101771000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>HGqVHj</t>
+          <t>TI4xZC</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>1764203402000</v>
+        <v>1764101803000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Kb5KFe</t>
+          <t>6zCLU1</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1764250171000</v>
+        <v>1764102507000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>GFq3ve</t>
+          <t>TlDmkM</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -2316,22 +2316,22 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1764254726000</v>
+        <v>1764104375000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>OF18d0</t>
+          <t>aZsQRH</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
@@ -2341,47 +2341,47 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1764259999000</v>
+        <v>1764104530000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>TRYws2</t>
+          <t>jdzgn1</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1764263696000</v>
+        <v>1764106130000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>ULi2Dh</t>
+          <t>4QvSex</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
@@ -2395,13 +2395,13 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1764264615000</v>
+        <v>1764107220000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>Cah33c</t>
+          <t>8Wfinz</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -2411,47 +2411,47 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1764265488000</v>
+        <v>1764107904000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>ME7d7D</t>
+          <t>sqppdp</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1764265530000</v>
+        <v>1764107977000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>CU1Ifu</t>
+          <t>tcIPOJ</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -2466,47 +2466,47 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1764268310000</v>
+        <v>1764108103000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>4LSzvO</t>
+          <t>avmhM0</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1764269031000</v>
+        <v>1764108913000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Jy2w9W</t>
+          <t>Nlm8lK</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
@@ -2520,18 +2520,18 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1764270159000</v>
+        <v>1764109925000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>dH9bW1</t>
+          <t>PpfvVi</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -2541,47 +2541,47 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1764272729000</v>
+        <v>1764111560000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>FOCEvO</t>
+          <t>QHFVWZ</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1764273662000</v>
+        <v>1764111651000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>9HoZY3</t>
+          <t>tSlnNh</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -2595,38 +2595,38 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>1764275438000</v>
+        <v>1764111739000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>TwRlhX</t>
+          <t>b87m9c</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1764277119000</v>
+        <v>1764113361000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>dEhRaw</t>
+          <t>itCTn8</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
@@ -2636,97 +2636,97 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1764280847000</v>
+        <v>1764115315000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>ko1d5P</t>
+          <t>jPzXhD</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1764285332000</v>
+        <v>1764163859000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>fscTFZ</t>
+          <t>XDLY2k</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1764288925000</v>
+        <v>1764168236000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>webZUk</t>
+          <t>LPc1lk</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1764334965000</v>
+        <v>1764169335000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>lUsn0e</t>
+          <t>LqkKDo</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -2741,17 +2741,17 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1764336736000</v>
+        <v>1764169353000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>eFDlOR</t>
+          <t>ceuipO</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2761,32 +2761,32 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1764337396000</v>
+        <v>1764172697000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>RIaArF</t>
+          <t>MMFq5n</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -2795,13 +2795,13 @@
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1764337637000</v>
+        <v>1764172763000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>YO5Mfk</t>
+          <t>dSJWk9</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2816,77 +2816,77 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1764338353000</v>
+        <v>1764173696000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>pLp2xQ</t>
+          <t>PM5O3g</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1764340243000</v>
+        <v>1764173837000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>fq6xAg</t>
+          <t>il5H3t</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1764340365000</v>
+        <v>1764174508000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>cTqZuj</t>
+          <t>ELoOjI</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
@@ -2895,18 +2895,18 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1764348456000</v>
+        <v>1764174594000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>LcipCP</t>
+          <t>KtTxLm</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
@@ -2916,27 +2916,27 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1764350092000</v>
+        <v>1764176568000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>uf0Grz</t>
+          <t>T6WNMH</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -2945,48 +2945,48 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1764350100000</v>
+        <v>1764183629000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>pO6aAp</t>
+          <t>nACxC4</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1764351178000</v>
+        <v>1764184518000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>6rGlzc</t>
+          <t>wEyiB4</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
@@ -2995,18 +2995,18 @@
         </is>
       </c>
       <c r="E102" s="2" t="n">
-        <v>1764352019000</v>
+        <v>1764185379000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>dyLBaP</t>
+          <t>9Jgfxg</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
@@ -3020,48 +3020,48 @@
         </is>
       </c>
       <c r="E103" s="2" t="n">
-        <v>1764352849000</v>
+        <v>1764186310000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>GfwfN8</t>
+          <t>tCG9mN</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E104" s="2" t="n">
-        <v>1764358297000</v>
+        <v>1764186373000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>BFH4NE</t>
+          <t>NA6baO</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
@@ -3070,38 +3070,38 @@
         </is>
       </c>
       <c r="E105" s="2" t="n">
-        <v>1764359025000</v>
+        <v>1764187244000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>GFRRYP</t>
+          <t>lE7cjK</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E106" s="2" t="n">
-        <v>1764359049000</v>
+        <v>1764188078000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>ACRlTD</t>
+          <t>ZcabvX</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
@@ -3111,57 +3111,57 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E107" s="2" t="n">
-        <v>1764366333000</v>
+        <v>1764189056000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>yIhlWv</t>
+          <t>gXVZ7e</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E108" s="2" t="n">
-        <v>1764368058000</v>
+        <v>1764190701000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>9ztOTO</t>
+          <t>I5hPMU</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -3170,18 +3170,18 @@
         </is>
       </c>
       <c r="E109" s="2" t="n">
-        <v>1764370777000</v>
+        <v>1764190789000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>rhWQQu</t>
+          <t>qk9zVh</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -3195,18 +3195,18 @@
         </is>
       </c>
       <c r="E110" s="2" t="n">
-        <v>1764371819000</v>
+        <v>1764192776000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>hot2Qu</t>
+          <t>d4HqO8</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -3216,42 +3216,42 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E111" s="2" t="n">
-        <v>1764373381000</v>
+        <v>1764195186000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>OxRh1x</t>
+          <t>Fs9ABO</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E112" s="2" t="n">
-        <v>1764376201000</v>
+        <v>1764195405000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>iT2mbv</t>
+          <t>CJ5yMU</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -3266,22 +3266,22 @@
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E113" s="2" t="n">
-        <v>1764376214000</v>
+        <v>1764199064000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>XqHb4x</t>
+          <t>1YQHUN</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
@@ -3291,22 +3291,22 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E114" s="2" t="n">
-        <v>1764421374000</v>
+        <v>1764200832000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>AhAVba</t>
+          <t>ZPl645</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -3320,23 +3320,23 @@
         </is>
       </c>
       <c r="E115" s="2" t="n">
-        <v>1764423041000</v>
+        <v>1764248451000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>RyM11d</t>
+          <t>5bIJ30</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
@@ -3345,13 +3345,13 @@
         </is>
       </c>
       <c r="E116" s="2" t="n">
-        <v>1764426501000</v>
+        <v>1764248498000</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>Y5GXU5</t>
+          <t>OYzxeO</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E117" s="2" t="n">
-        <v>1764426628000</v>
+        <v>1764251037000</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>VJV9DU</t>
+          <t>jhFKOr</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -3386,22 +3386,22 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E118" s="2" t="n">
-        <v>1764427429000</v>
+        <v>1764251176000</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>z8fsCf</t>
+          <t>ottf6e</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
@@ -3411,27 +3411,27 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E119" s="2" t="n">
-        <v>1764427633000</v>
+        <v>1764252029000</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>sqCesd</t>
+          <t>037IKT</t>
         </is>
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
@@ -3441,17 +3441,17 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E120" s="2" t="n">
-        <v>1764428560000</v>
+        <v>1764255753000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>EkNdSR</t>
+          <t>fbO5re</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
@@ -3470,38 +3470,38 @@
         </is>
       </c>
       <c r="E121" s="2" t="n">
-        <v>1764431239000</v>
+        <v>1764256431000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>bTKVa7</t>
+          <t>uKYVtv</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E122" s="2" t="n">
-        <v>1764432055000</v>
+        <v>1764256472000</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>9hXXqa</t>
+          <t>485eWQ</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
@@ -3511,27 +3511,27 @@
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E123" s="2" t="n">
-        <v>1764435617000</v>
+        <v>1764257377000</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>SfMD6d</t>
+          <t>1DXBq7</t>
         </is>
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -3541,17 +3541,17 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E124" s="2" t="n">
-        <v>1764435756000</v>
+        <v>1764257378000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>iFhRm2</t>
+          <t>dOaLr5</t>
         </is>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -3561,22 +3561,22 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E125" s="2" t="n">
-        <v>1764436625000</v>
+        <v>1764257419000</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>NaeDOg</t>
+          <t>b5xkJl</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -3591,22 +3591,22 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E126" s="2" t="n">
-        <v>1764438187000</v>
+        <v>1764257509000</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>s33uP3</t>
+          <t>RRiGQ7</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -3620,38 +3620,38 @@
         </is>
       </c>
       <c r="E127" s="2" t="n">
-        <v>1764439161000</v>
+        <v>1764257516000</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>A3aGEH</t>
+          <t>iN4au4</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E128" s="2" t="n">
-        <v>1764442801000</v>
+        <v>1764258448000</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>iS4aLA</t>
+          <t>UgJHwr</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -3666,17 +3666,17 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E129" s="2" t="n">
-        <v>1764444572000</v>
+        <v>1764260069000</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>Oft0Lt</t>
+          <t>VGm7Is</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -3686,32 +3686,32 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E130" s="2" t="n">
-        <v>1764451027000</v>
+        <v>1764261125000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>FL1WJ0</t>
+          <t>SYAnUB</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
@@ -3720,13 +3720,13 @@
         </is>
       </c>
       <c r="E131" s="2" t="n">
-        <v>1764452869000</v>
+        <v>1764261785000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>ST4pP6</t>
+          <t>Knz8Wt</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
@@ -3736,32 +3736,32 @@
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E132" s="2" t="n">
-        <v>1764458261000</v>
+        <v>1764261823000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>9OyGf0</t>
+          <t>hJZucQ</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
@@ -3770,63 +3770,63 @@
         </is>
       </c>
       <c r="E133" s="2" t="n">
-        <v>1764460759000</v>
+        <v>1764264639000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>zrHZl6</t>
+          <t>C6ILMB</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E134" s="2" t="n">
-        <v>1764460874000</v>
+        <v>1764266285000</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>bL9jw9</t>
+          <t>lwbINN</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E135" s="2" t="n">
-        <v>1764512939000</v>
+        <v>1764266449000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>R367JI</t>
+          <t>Wvbcos</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
@@ -3836,22 +3836,22 @@
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E136" s="2" t="n">
-        <v>1764514844000</v>
+        <v>1764267362000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>bIjrvz</t>
+          <t>4B9GaP</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -3866,27 +3866,27 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E137" s="2" t="n">
-        <v>1764517506000</v>
+        <v>1764269086000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>U3NPUk</t>
+          <t>n5B64S</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
@@ -3895,63 +3895,63 @@
         </is>
       </c>
       <c r="E138" s="2" t="n">
-        <v>1764520254000</v>
+        <v>1764270833000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>FHtLqA</t>
+          <t>jgIQn1</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E139" s="2" t="n">
-        <v>1764521125000</v>
+        <v>1764270836000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>L0Xot6</t>
+          <t>b7n79k</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E140" s="2" t="n">
-        <v>1764523050000</v>
+        <v>1764272837000</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>rzV7Eb</t>
+          <t>Ij6xQy</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -3961,32 +3961,32 @@
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E141" s="2" t="n">
-        <v>1764524778000</v>
+        <v>1764274519000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>lvsLaH</t>
+          <t>2hMjZU</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
@@ -3995,43 +3995,43 @@
         </is>
       </c>
       <c r="E142" s="2" t="n">
-        <v>1764528321000</v>
+        <v>1764274529000</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>5x9CCC</t>
+          <t>q3u6Tp</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E143" s="2" t="n">
-        <v>1764528379000</v>
+        <v>1764275465000</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="inlineStr">
         <is>
-          <t>AApFdF</t>
+          <t>4DiaZs</t>
         </is>
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
@@ -4041,27 +4041,27 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E144" s="2" t="n">
-        <v>1764529301000</v>
+        <v>1764277212000</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>7qS125</t>
+          <t>FYc2K3</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
@@ -4070,13 +4070,13 @@
         </is>
       </c>
       <c r="E145" s="2" t="n">
-        <v>1764532884000</v>
+        <v>1764278159000</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>K8B27r</t>
+          <t>BcbdBZ</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E146" s="2" t="n">
-        <v>1764532953000</v>
+        <v>1764278200000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="inlineStr">
         <is>
-          <t>fm16Z7</t>
+          <t>KSq9G0</t>
         </is>
       </c>
       <c r="B147" s="2" t="inlineStr">
@@ -4111,57 +4111,57 @@
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E147" s="2" t="n">
-        <v>1764532959000</v>
+        <v>1764278960000</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>eDs573</t>
+          <t>KGb6gw</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E148" s="2" t="n">
-        <v>1764533714000</v>
+        <v>1764280739000</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>ffkc4b</t>
+          <t>ocLRcq</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
@@ -4170,43 +4170,43 @@
         </is>
       </c>
       <c r="E149" s="2" t="n">
-        <v>1764533787000</v>
+        <v>1764284443000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>O8pEnP</t>
+          <t>61jqsk</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E150" s="2" t="n">
-        <v>1764539034000</v>
+        <v>1764285289000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>4EyG1H</t>
+          <t>NzrI09</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
@@ -4216,72 +4216,72 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E151" s="2" t="n">
-        <v>1764539247000</v>
+        <v>1764285299000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>LQsQEM</t>
+          <t>m2C2Oi</t>
         </is>
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E152" s="2" t="n">
-        <v>1764539955000</v>
+        <v>1764286248000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>NP9HPC</t>
+          <t>04UtGl</t>
         </is>
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E153" s="2" t="n">
-        <v>1764540876000</v>
+        <v>1764286367000</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>2BmJ3y</t>
+          <t>b06rmB</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -4295,23 +4295,23 @@
         </is>
       </c>
       <c r="E154" s="2" t="n">
-        <v>1764541063000</v>
+        <v>1764287114000</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>zW5sIA</t>
+          <t>CrG4kh</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
@@ -4320,43 +4320,43 @@
         </is>
       </c>
       <c r="E155" s="2" t="n">
-        <v>1764541074000</v>
+        <v>1764288135000</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>yBtcLQ</t>
+          <t>NvTcZj</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E156" s="2" t="n">
-        <v>1764544418000</v>
+        <v>1764288918000</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>GtDQXH</t>
+          <t>QaLKH1</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -4370,18 +4370,18 @@
         </is>
       </c>
       <c r="E157" s="2" t="n">
-        <v>1764544602000</v>
+        <v>1764289835000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>m8gXSS</t>
+          <t>KyyWFF</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -4395,38 +4395,38 @@
         </is>
       </c>
       <c r="E158" s="2" t="n">
-        <v>1764545291000</v>
+        <v>1764334926000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>1R64e8</t>
+          <t>bKHWVJ</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E159" s="2" t="n">
-        <v>1764546219000</v>
+        <v>1764335760000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>7nf8H6</t>
+          <t>1WUP9L</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
@@ -4441,22 +4441,22 @@
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E160" s="2" t="n">
-        <v>1764547180000</v>
+        <v>1764336713000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>EeMR4f</t>
+          <t>uzZoMr</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
@@ -4466,11 +4466,2261 @@
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>1764337390000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>qfHyCS</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
           <t>WTCR</t>
         </is>
       </c>
-      <c r="E161" s="2" t="n">
-        <v>1764548038000</v>
+      <c r="E162" s="2" t="n">
+        <v>1764338478000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>4Cq6M5</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1764339398000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>KKzvo4</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>1764340112000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Lto43Z</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>1764342930000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>sUWNIT</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>1764343056000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>3Q4nhI</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>1764343682000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>R8yMAl</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>1764344792000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>rEI18I</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>1764345576000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>JgZLfs</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>1764345740000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>lZpTHy</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>1764346538000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>d7Rsjl</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>1764347534000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>Gs24AF</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>1764349241000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>ec3Ii8</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>1764349300000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>ZodRUo</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>1764350172000</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>D7sWgD</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>1764350945000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>0gfmYk</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>1764353766000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>5FvAJT</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>1764353825000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>w9dDef</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>1764356544000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>yVRnWO</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>1764360078000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>TNtHVM</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>1764368179000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>GVyjDX</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>1764368228000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>QAKbPH</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>1764368253000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Yt1lF1</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>1764369007000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>YslgmZ</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>1764369784000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>VIbein</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>1764369921000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>UcQqTS</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>1764370748000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>YRBC8P</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>1764370966000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>2qUFT1</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>1764373508000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>yGRCxz</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>1764374473000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>K8R8gz</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>1764421208000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>DCsH3x</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>1764425645000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>ExTiwr</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>1764427658000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>LJYqsO</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>1764428567000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>FFlyLY</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>1764430204000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>t1TLoL</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>1764430293000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>Wn7Iz1</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>1764433074000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>kdvz2I</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>1764433853000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>2aEDSZ</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>1764433909000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>j6sa4U</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>1764438332000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>UUOAAU</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>1764440271000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>LFeYgG</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>1764441926000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>fl6iLn</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>1764442683000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>zbQfZk</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>1764443778000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Iz6RaW</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>1764443788000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>dmPKJU</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>1764446368000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>O1KBTS</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>1764450123000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>em0QP2</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>1764450148000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>sb3AQv</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>1764451007000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>YwRQ82</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>1764451872000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>Sm1JSJ</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>1764451882000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>S1eNuT</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>1764452787000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>m42hHe</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>1764455571000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>njZ7gS</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>1764457350000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>o0sQQZ</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>1764458150000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>AYP6yJ</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>1764458152000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>GUoSPp</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>1764458996000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>qHQLDJ</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>1764459784000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>L5hsp9</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>1764459953000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>6m82KO</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>1764509401000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>mW4Ks6</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>1764510416000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>HTTltg</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>1764512028000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>c0s0SU</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>1764512042000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>3eoZx5</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>1764514903000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>2B1DUT</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>1764515767000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>CFJgyd</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>1764515877000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>76WUvD</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>1764516687000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>oVAQBm</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>1764517629000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>gI5G11</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>1764519331000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>CBWwjL</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>1764520292000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>5U7g4g</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>1764521272000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>TwzocJ</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>1764522928000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>efx21U</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>1764523759000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>3hBl4l</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>1764526596000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>eEYM1w</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>1764531038000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>mGvQ0Z</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>1764535581000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>VGcU29</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>1764536336000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>OD60pQ</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>1764536574000</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>PeJiNN</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>1764537221000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>4KYipa</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>1764538278000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>63nOml</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C241" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>1764539966000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>BSyaN8</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>1764540868000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>TwaYO0</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>1764542634000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>HRfYDx</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>1764542764000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>uGJREu</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>1764543604000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>inBHg7</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>1764544506000</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>aGLNtf</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C247" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>1764546376000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>9Uxdb2</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>1764546377000</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>wkpsnP</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>1764548114000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>IkGK1Y</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>1764549022000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>k7goM5</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C251" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>1764549042000</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -476,17 +476,17 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>nyzMEZ</t>
+          <t>BRAgjr</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -495,38 +495,38 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1763993700000</v>
+        <v>1763989206000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>LRW0xs</t>
+          <t>It90je</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1763994524000</v>
+        <v>1763989209000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>6NZn3a</t>
+          <t>4agrXP</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -541,22 +541,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1763995660000</v>
+        <v>1763989232000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>LJ7oFP</t>
+          <t>3pa4vL</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1764001799000</v>
+        <v>1763997353000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>QFETwJ</t>
+          <t>N6sGPN</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -595,13 +595,13 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1764001841000</v>
+        <v>1763998306000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>WB6una</t>
+          <t>VRAzCb</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -616,22 +616,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1764003576000</v>
+        <v>1763999256000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>LZUVu6</t>
+          <t>wuVB55</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1764006468000</v>
+        <v>1764001856000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>jetg3X</t>
+          <t>D06Fb3</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1764007212000</v>
+        <v>1764002582000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>ybcBfY</t>
+          <t>NNxPVB</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1764007341000</v>
+        <v>1764006194000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>ZMnw0C</t>
+          <t>BVjsGu</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1764009016000</v>
+        <v>1764010690000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>MokOED</t>
+          <t>0iGqnX</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -736,22 +736,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1764012675000</v>
+        <v>1764012656000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>J6O2jt</t>
+          <t>RPIvjS</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -766,42 +766,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1764012746000</v>
+        <v>1764016286000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>E95K0O</t>
+          <t>vPfaMW</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1764017258000</v>
+        <v>1764016989000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>xp4kTq</t>
+          <t>ivxkwc</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -820,68 +820,68 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1764021774000</v>
+        <v>1764026929000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>4tW36f</t>
+          <t>mOwtfq</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1764026268000</v>
+        <v>1764078334000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>EcvxD1</t>
+          <t>iz3lu1</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1764028078000</v>
+        <v>1764079144000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>e0XbFw</t>
+          <t>bckwwH</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1764077527000</v>
+        <v>1764080028000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>WQO2Yh</t>
+          <t>tiKhiE</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -916,22 +916,22 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1764078212000</v>
+        <v>1764088325000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>kTU5pk</t>
+          <t>nMn2io</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1764080930000</v>
+        <v>1764090793000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>cTvDiG</t>
+          <t>VrScYI</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -961,32 +961,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1764082762000</v>
+        <v>1764091929000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>M0SgyM</t>
+          <t>7tftJd</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -995,38 +995,38 @@
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1764082788000</v>
+        <v>1764096225000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>qZi9Nm</t>
+          <t>r6HaSb</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1764083753000</v>
+        <v>1764102712000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2hPcYH</t>
+          <t>7iwGke</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1041,22 +1041,22 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1764085505000</v>
+        <v>1764108798000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>mB1HOZ</t>
+          <t>Ouv5QZ</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1066,22 +1066,22 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1764088200000</v>
+        <v>1764108847000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>O0Uk7f</t>
+          <t>PSSfhz</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1095,18 +1095,18 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1764091946000</v>
+        <v>1764164775000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>7FT6WT</t>
+          <t>Ztzqd7</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1116,22 +1116,22 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1764092603000</v>
+        <v>1764172026000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>gVoJaB</t>
+          <t>pLw5HI</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
@@ -1141,42 +1141,42 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1764092772000</v>
+        <v>1764174649000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>9roZLr</t>
+          <t>a2LJCk</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1764093510000</v>
+        <v>1764178362000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>ysf0uR</t>
+          <t>QSw5jI</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1195,48 +1195,48 @@
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1764097165000</v>
+        <v>1764179092000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>B69kN2</t>
+          <t>t6Fdx0</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1764098128000</v>
+        <v>1764180860000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>nMzUWS</t>
+          <t>SS42do</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1764102778000</v>
+        <v>1764184431000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Myyp69</t>
+          <t>J47ECU</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -1270,68 +1270,68 @@
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1764108136000</v>
+        <v>1764187238000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>7q2w39</t>
+          <t>sOuxWS</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1764111607000</v>
+        <v>1764189026000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2kBtxP</t>
+          <t>MjBkAL</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1764113490000</v>
+        <v>1764192673000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>ZNYru8</t>
+          <t>azRk9t</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
@@ -1341,22 +1341,22 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1764115115000</v>
+        <v>1764194395000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>K4G5FF</t>
+          <t>tbXP2i</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1370,43 +1370,43 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1764115310000</v>
+        <v>1764197984000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>gIltCN</t>
+          <t>snoOLi</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1764115320000</v>
+        <v>1764200720000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BBoe6l</t>
+          <t>oG0duV</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1420,43 +1420,43 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1764164824000</v>
+        <v>1764203447000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>DOHEb2</t>
+          <t>xgbHQb</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1764166382000</v>
+        <v>1764253909000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>FRr8Kd</t>
+          <t>1OOQ0d</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1764166457000</v>
+        <v>1764254686000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>RvnRKe</t>
+          <t>QgIrio</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1764170047000</v>
+        <v>1764254780000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BwADoL</t>
+          <t>S0E4f9</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -1520,18 +1520,18 @@
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1764172921000</v>
+        <v>1764255506000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>zK72jM</t>
+          <t>ERUkqt</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1541,67 +1541,67 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1764181041000</v>
+        <v>1764255755000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>JNl2g2</t>
+          <t>43wPPu</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1764182768000</v>
+        <v>1764258209000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>FHk50Y</t>
+          <t>WgtB9k</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1764185513000</v>
+        <v>1764259081000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>J8G4PR</t>
+          <t>PDOHl5</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1764191772000</v>
+        <v>1764259093000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>0kwUWs</t>
+          <t>g7isHW</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1641,22 +1641,22 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1764193567000</v>
+        <v>1764260934000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>F3Gwuj</t>
+          <t>BgG5C2</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1666,22 +1666,22 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1764196119000</v>
+        <v>1764262708000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>xHbTP8</t>
+          <t>CcAKfh</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1691,42 +1691,42 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1764202415000</v>
+        <v>1764262844000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>VTqyMg</t>
+          <t>lZTHqN</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1764203405000</v>
+        <v>1764265619000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>TP6NnY</t>
+          <t>wtWWqR</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1736,52 +1736,52 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1764203458000</v>
+        <v>1764268086000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>uTjb8A</t>
+          <t>AQZ16x</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1764255720000</v>
+        <v>1764274403000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>1ND1Qe</t>
+          <t>OIwt6P</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
@@ -1791,47 +1791,47 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1764257318000</v>
+        <v>1764276183000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>0FhJMu</t>
+          <t>fjhHpy</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1764257329000</v>
+        <v>1764277224000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>3Zwbku</t>
+          <t>IsUHwV</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
@@ -1841,27 +1841,27 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1764263684000</v>
+        <v>1764284363000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Uxbs9t</t>
+          <t>gVAriA</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -1870,38 +1870,38 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1764269271000</v>
+        <v>1764285245000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>oyeT0U</t>
+          <t>VERjLI</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1764269902000</v>
+        <v>1764285311000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>pbbgHF</t>
+          <t>mliKvD</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
@@ -1920,23 +1920,23 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1764275341000</v>
+        <v>1764334946000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>8IChYA</t>
+          <t>cmwSrQ</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -1945,38 +1945,38 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1764275463000</v>
+        <v>1764337391000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>DwgqwP</t>
+          <t>Wm8ldI</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1764283383000</v>
+        <v>1764344652000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>kHZDAw</t>
+          <t>ZuVCxX</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
@@ -1995,13 +1995,13 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1764283535000</v>
+        <v>1764350129000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>WahFpd</t>
+          <t>D5ZI2X</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -2011,132 +2011,132 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1764335618000</v>
+        <v>1764355627000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>SfBeQx</t>
+          <t>Sc78h5</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1764343057000</v>
+        <v>1764358370000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>qxUlPK</t>
+          <t>ChNON3</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1764348337000</v>
+        <v>1764359234000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>v3XNc9</t>
+          <t>aKbQ2N</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1764349370000</v>
+        <v>1764361962000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>vAHKER</t>
+          <t>5rqC7J</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1764356513000</v>
+        <v>1764363547000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>WcGDXr</t>
+          <t>aY2Ztq</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -2145,13 +2145,13 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1764359012000</v>
+        <v>1764364609000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>lBk2Xy</t>
+          <t>FXe7CY</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -2161,22 +2161,22 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1764366230000</v>
+        <v>1764366243000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>FOPqwa</t>
+          <t>j1Spat</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -2191,17 +2191,17 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1764367311000</v>
+        <v>1764367992000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>5CkXXJ</t>
+          <t>8jUwem</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
@@ -2211,47 +2211,47 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>1764368938000</v>
+        <v>1764375187000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>BqsQbJ</t>
+          <t>O6uBzl</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1764432085000</v>
+        <v>1764375291000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>8hMRPY</t>
+          <t>3ob4V0</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>1764435684000</v>
+        <v>1764375304000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>paIrHU</t>
+          <t>IHXxUQ</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -2286,47 +2286,47 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1764436401000</v>
+        <v>1764421252000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>YNndJy</t>
+          <t>lZEgjY</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1764437291000</v>
+        <v>1764421254000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>FMHxOG</t>
+          <t>oMpWHP</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -2341,22 +2341,22 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1764437411000</v>
+        <v>1764423083000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>slxE6t</t>
+          <t>xUzdJH</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
@@ -2366,52 +2366,52 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1764441024000</v>
+        <v>1764425739000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Lu7xTp</t>
+          <t>YxuOCm</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1764448153000</v>
+        <v>1764426576000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>R5VHc6</t>
+          <t>wUfc0h</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -2420,13 +2420,13 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1764451947000</v>
+        <v>1764429301000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BmRcVh</t>
+          <t>CebWA0</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -2441,42 +2441,42 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1764452761000</v>
+        <v>1764431193000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>erau3b</t>
+          <t>EESNLR</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1764453510000</v>
+        <v>1764435546000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>BYz6BN</t>
+          <t>0FQ6kl</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -2486,47 +2486,47 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1764455307000</v>
+        <v>1764436578000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>PVntg0</t>
+          <t>alPGFw</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1764456232000</v>
+        <v>1764436658000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>qj5Duq</t>
+          <t>GOYlWF</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -2541,17 +2541,17 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1764456393000</v>
+        <v>1764440256000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>M82kZk</t>
+          <t>m73BWs</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -2561,127 +2561,127 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1764457257000</v>
+        <v>1764441018000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>S7qNR8</t>
+          <t>2JG7Az</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>1764458980000</v>
+        <v>1764443875000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>ToheaC</t>
+          <t>ylnIJN</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1764461790000</v>
+        <v>1764444541000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>99XpvZ</t>
+          <t>T3scCQ</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1764462628000</v>
+        <v>1764448224000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>WNnCwQ</t>
+          <t>JwY5tV</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1764507642000</v>
+        <v>1764448991000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>i52lJF</t>
+          <t>5LLMlO</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -2691,27 +2691,27 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1764510337000</v>
+        <v>1764452687000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Oc4T4M</t>
+          <t>wPSA5l</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -2720,38 +2720,38 @@
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1764512023000</v>
+        <v>1764461656000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>3NFRia</t>
+          <t>XiYVFu</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1764516692000</v>
+        <v>1764509357000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>oRQVq3</t>
+          <t>4YjtqX</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
@@ -2761,47 +2761,47 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1764517618000</v>
+        <v>1764515708000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>sDjECq</t>
+          <t>KWhWIS</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1764522804000</v>
+        <v>1764526599000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>fgeiEB</t>
+          <t>f64YMl</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -2816,67 +2816,67 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1764523066000</v>
+        <v>1764529998000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>bd3R75</t>
+          <t>C2eKh8</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1764524798000</v>
+        <v>1764530996000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>W4tZRN</t>
+          <t>9l8yL8</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1764535637000</v>
+        <v>1764533590000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>oEfii8</t>
+          <t>AyDGp8</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2891,17 +2891,17 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1764537368000</v>
+        <v>1764535385000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>2jlbPb</t>
+          <t>74MTgz</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -2916,17 +2916,17 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1764540022000</v>
+        <v>1764542601000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>JAcRs8</t>
+          <t>qu1lGf</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -2945,18 +2945,18 @@
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1764542688000</v>
+        <v>1764544425000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>XiJRmh</t>
+          <t>RjYqx6</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1764544510000</v>
+        <v>1764544572000</v>
       </c>
     </row>
   </sheetData>

--- a/created/xlsxs/race_meta.xlsx
+++ b/created/xlsxs/race_meta.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>BRAgjr</t>
+          <t>KLYc4n</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -491,27 +491,27 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1763989206000</v>
+        <v>1763991098000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>It90je</t>
+          <t>qc8bde</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -520,18 +520,18 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1763989209000</v>
+        <v>1763991817000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>4agrXP</t>
+          <t>my4SsU</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1763989232000</v>
+        <v>1763992965000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3pa4vL</t>
+          <t>kOaJgf</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -570,118 +570,118 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1763997353000</v>
+        <v>1763999142000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>N6sGPN</t>
+          <t>wVefHZ</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1763998306000</v>
+        <v>1763999190000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>VRAzCb</t>
+          <t>cEx47Y</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1763999256000</v>
+        <v>1763999970000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>wuVB55</t>
+          <t>QhPyuO</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1764001856000</v>
+        <v>1764000145000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>D06Fb3</t>
+          <t>2OQ7Ui</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1764002582000</v>
+        <v>1764001681000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>NNxPVB</t>
+          <t>XU0QcA</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1764006194000</v>
+        <v>1764002630000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BVjsGu</t>
+          <t>blltu7</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -716,47 +716,47 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1764010690000</v>
+        <v>1764003606000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>0iGqnX</t>
+          <t>UxGFxa</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1764012656000</v>
+        <v>1764003633000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>RPIvjS</t>
+          <t>XzJ9Jm</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -766,27 +766,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1764016286000</v>
+        <v>1764005571000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>vPfaMW</t>
+          <t>w06PEU</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -795,18 +795,18 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1764016989000</v>
+        <v>1764007349000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>ivxkwc</t>
+          <t>8xYfWI</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -816,72 +816,72 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1764026929000</v>
+        <v>1764009030000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>mOwtfq</t>
+          <t>2ViAXO</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1764078334000</v>
+        <v>1764010869000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>iz3lu1</t>
+          <t>WHdiH2</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1764079144000</v>
+        <v>1764012513000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>bckwwH</t>
+          <t>UgesAU</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -891,47 +891,47 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1764080028000</v>
+        <v>1764012676000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>tiKhiE</t>
+          <t>fc3l5d</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1764088325000</v>
+        <v>1764015286000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>nMn2io</t>
+          <t>zqtBLT</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -941,22 +941,22 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1764090793000</v>
+        <v>1764015339000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>VrScYI</t>
+          <t>OcFiaQ</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -966,47 +966,47 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1764091929000</v>
+        <v>1764019871000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>7tftJd</t>
+          <t>wX5q8y</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1764096225000</v>
+        <v>1764022617000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>r6HaSb</t>
+          <t>wpkXg9</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1016,42 +1016,42 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1764102712000</v>
+        <v>1764023539000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>7iwGke</t>
+          <t>Vj9t4I</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1764108798000</v>
+        <v>1764024306000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Ouv5QZ</t>
+          <t>n5LwTw</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1061,52 +1061,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1764108847000</v>
+        <v>1764024343000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>PSSfhz</t>
+          <t>lRM0Ma</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1764164775000</v>
+        <v>1764024439000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Ztzqd7</t>
+          <t>x6fRLI</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1116,47 +1116,47 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1764172026000</v>
+        <v>1764025213000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>pLw5HI</t>
+          <t>pRHwqe</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1764174649000</v>
+        <v>1764026255000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>a2LJCk</t>
+          <t>dkwBOR</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1166,47 +1166,47 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1764178362000</v>
+        <v>1764027162000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>QSw5jI</t>
+          <t>uzhGd5</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1764179092000</v>
+        <v>1764028014000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>t6Fdx0</t>
+          <t>H5t666</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1216,67 +1216,67 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1764180860000</v>
+        <v>1764028806000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>SS42do</t>
+          <t>rK8PZS</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1764184431000</v>
+        <v>1764029658000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>J47ECU</t>
+          <t>mcH9AC</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1764187238000</v>
+        <v>1764030547000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>sOuxWS</t>
+          <t>baHNz5</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1295,18 +1295,18 @@
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1764189026000</v>
+        <v>1764030615000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>MjBkAL</t>
+          <t>cKCVi9</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1764192673000</v>
+        <v>1764030624000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>azRk9t</t>
+          <t>CQ40Nn</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -1345,13 +1345,13 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1764194395000</v>
+        <v>1764030656000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>tbXP2i</t>
+          <t>Aa6t02</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -1370,38 +1370,38 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1764197984000</v>
+        <v>1764076651000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>snoOLi</t>
+          <t>x6srMh</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1764200720000</v>
+        <v>1764076668000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>oG0duV</t>
+          <t>PQ5hNR</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -1416,22 +1416,22 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1764203447000</v>
+        <v>1764079263000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>xgbHQb</t>
+          <t>bMCjWP</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1445,18 +1445,18 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1764253909000</v>
+        <v>1764080015000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>1OOQ0d</t>
+          <t>tWxwJk</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1764254686000</v>
+        <v>1764080252000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>QgIrio</t>
+          <t>SEaRDH</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -1495,43 +1495,43 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1764254780000</v>
+        <v>1764081054000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>S0E4f9</t>
+          <t>FI5Srl</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1764255506000</v>
+        <v>1764083755000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>ERUkqt</t>
+          <t>fJcctg</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1541,17 +1541,17 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1764255755000</v>
+        <v>1764084763000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>43wPPu</t>
+          <t>fVFqpG</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -1570,13 +1570,13 @@
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1764258209000</v>
+        <v>1764088378000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>WgtB9k</t>
+          <t>HfLT0R</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -1586,47 +1586,47 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1764259081000</v>
+        <v>1764089143000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>PDOHl5</t>
+          <t>Fhei73</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>1764259093000</v>
+        <v>1764090889000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>g7isHW</t>
+          <t>yM4N9Y</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
@@ -1641,27 +1641,27 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1764260934000</v>
+        <v>1764092648000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BgG5C2</t>
+          <t>BZ4PPu</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
@@ -1670,13 +1670,13 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1764262708000</v>
+        <v>1764092708000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>CcAKfh</t>
+          <t>psyax9</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -1686,22 +1686,22 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1764262844000</v>
+        <v>1764092779000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>lZTHqN</t>
+          <t>ea0pLi</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -1716,17 +1716,17 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1764265619000</v>
+        <v>1764094452000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>wtWWqR</t>
+          <t>Pe7IFu</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -1741,22 +1741,22 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>1764268086000</v>
+        <v>1764094527000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>AQZ16x</t>
+          <t>q59xFM</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
@@ -1766,52 +1766,52 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>1764274403000</v>
+        <v>1764096280000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>OIwt6P</t>
+          <t>JvHapw</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>1764276183000</v>
+        <v>1764097329000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>fjhHpy</t>
+          <t>7AVu3z</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
@@ -1820,63 +1820,63 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>1764277224000</v>
+        <v>1764098199000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>IsUHwV</t>
+          <t>wlsrml</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>1764284363000</v>
+        <v>1764099085000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>gVAriA</t>
+          <t>T6Tlll</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>1764285245000</v>
+        <v>1764099859000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>VERjLI</t>
+          <t>zYzfqF</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -1886,52 +1886,52 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>1764285311000</v>
+        <v>1764100691000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>mliKvD</t>
+          <t>Yvxx5g</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>1764334946000</v>
+        <v>1764102764000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>cmwSrQ</t>
+          <t>fjbB3S</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
@@ -1945,23 +1945,23 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>1764337391000</v>
+        <v>1764103393000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Wm8ldI</t>
+          <t>xFnvAT</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
@@ -1970,18 +1970,18 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>1764344652000</v>
+        <v>1764104527000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>ZuVCxX</t>
+          <t>RX2TQZ</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>1764350129000</v>
+        <v>1764105199000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>D5ZI2X</t>
+          <t>MwNwPx</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
@@ -2020,48 +2020,48 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>1764355627000</v>
+        <v>1764105474000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Sc78h5</t>
+          <t>NVmMWr</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>1764358370000</v>
+        <v>1764106174000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>ChNON3</t>
+          <t>Xqvlkb</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
@@ -2070,13 +2070,13 @@
         </is>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1764359234000</v>
+        <v>1764108104000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>aKbQ2N</t>
+          <t>4KgbL2</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>1764361962000</v>
+        <v>1764109004000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>5rqC7J</t>
+          <t>CuON8j</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
@@ -2116,17 +2116,17 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>1764363547000</v>
+        <v>1764109066000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>aY2Ztq</t>
+          <t>tAXnP8</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -2141,17 +2141,17 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>1764364609000</v>
+        <v>1764109853000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>FXe7CY</t>
+          <t>ZYRyuU</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
@@ -2161,32 +2161,32 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>1764366243000</v>
+        <v>1764112395000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>j1Spat</t>
+          <t>yOjB6e</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -2195,23 +2195,23 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>1764367992000</v>
+        <v>1764162160000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>8jUwem</t>
+          <t>rTwvDx</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -2220,13 +2220,13 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>1764375187000</v>
+        <v>1764163736000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>O6uBzl</t>
+          <t>gwlHJX</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
@@ -2241,27 +2241,27 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>1764375291000</v>
+        <v>1764166677000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>3ob4V0</t>
+          <t>0qMoEK</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -2270,48 +2270,48 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>1764375304000</v>
+        <v>1764168247000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>IHXxUQ</t>
+          <t>gdVSuk</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E74" s="2" t="n">
-        <v>1764421252000</v>
+        <v>1764169112000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>lZEgjY</t>
+          <t>ItzZpd</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -2320,38 +2320,38 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1764421254000</v>
+        <v>1764169350000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>oMpWHP</t>
+          <t>NnqBjk</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1764423083000</v>
+        <v>1764170976000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>xUzdJH</t>
+          <t>3D8NT5</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -2366,27 +2366,27 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1764425739000</v>
+        <v>1764172889000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>YxuOCm</t>
+          <t>mkLUeK</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -2395,43 +2395,43 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>1764426576000</v>
+        <v>1764172927000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>wUfc0h</t>
+          <t>5lZY7s</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1764429301000</v>
+        <v>1764172933000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>CebWA0</t>
+          <t>FMHJdj</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1764431193000</v>
+        <v>1764173594000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>EESNLR</t>
+          <t>9RMu8q</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -2466,22 +2466,22 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>1764435546000</v>
+        <v>1764179083000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>0FQ6kl</t>
+          <t>mcxO7t</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -2491,27 +2491,27 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>1764436578000</v>
+        <v>1764182592000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>alPGFw</t>
+          <t>5tdxIj</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -2520,13 +2520,13 @@
         </is>
       </c>
       <c r="E83" s="2" t="n">
-        <v>1764436658000</v>
+        <v>1764183778000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>GOYlWF</t>
+          <t>0S363z</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -2541,52 +2541,52 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E84" s="2" t="n">
-        <v>1764440256000</v>
+        <v>1764186261000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>m73BWs</t>
+          <t>P4GZpT</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E85" s="2" t="n">
-        <v>1764441018000</v>
+        <v>1764186312000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>2JG7Az</t>
+          <t>6DXw7u</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -2595,13 +2595,13 @@
         </is>
       </c>
       <c r="E86" s="2" t="n">
-        <v>1764443875000</v>
+        <v>1764186408000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>ylnIJN</t>
+          <t>BkjIaJ</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -2611,47 +2611,47 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E87" s="2" t="n">
-        <v>1764444541000</v>
+        <v>1764187270000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>T3scCQ</t>
+          <t>h43kIn</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>International</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E88" s="2" t="n">
-        <v>1764448224000</v>
+        <v>1764189821000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>JwY5tV</t>
+          <t>tjigFb</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -2666,17 +2666,17 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E89" s="2" t="n">
-        <v>1764448991000</v>
+        <v>1764190004000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>5LLMlO</t>
+          <t>iF7QqQ</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
@@ -2691,72 +2691,72 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E90" s="2" t="n">
-        <v>1764452687000</v>
+        <v>1764191629000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>wPSA5l</t>
+          <t>hPPYCN</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Hyper Car</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E91" s="2" t="n">
-        <v>1764461656000</v>
+        <v>1764191844000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>XiYVFu</t>
+          <t>yY8J9E</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E92" s="2" t="n">
-        <v>1764509357000</v>
+        <v>1764196309000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>4YjtqX</t>
+          <t>Dk8OrF</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Silverstone Circuit</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
@@ -2770,63 +2770,63 @@
         </is>
       </c>
       <c r="E93" s="2" t="n">
-        <v>1764515708000</v>
+        <v>1764197044000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>KWhWIS</t>
+          <t>hzFVeH</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E94" s="2" t="n">
-        <v>1764526599000</v>
+        <v>1764197119000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>f64YMl</t>
+          <t>BxCRjk</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Silverstone Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Nordschleife</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E95" s="2" t="n">
-        <v>1764529998000</v>
+        <v>1764199044000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>C2eKh8</t>
+          <t>ONepLi</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -2836,47 +2836,47 @@
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Nordschleife</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>WTCR</t>
         </is>
       </c>
       <c r="E96" s="2" t="n">
-        <v>1764530996000</v>
+        <v>1764203420000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>9l8yL8</t>
+          <t>EzoKRG</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Nurburgring Nordschleife</t>
+          <t>Monza Circuit</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>24h</t>
+          <t>Grand Prix</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>GTR 3</t>
+          <t>DTM 1992</t>
         </is>
       </c>
       <c r="E97" s="2" t="n">
-        <v>1764533590000</v>
+        <v>1764248536000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>AyDGp8</t>
+          <t>NzV1gk</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="E98" s="2" t="n">
-        <v>1764535385000</v>
+        <v>1764250109000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>74MTgz</t>
+          <t>bsCTBv</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
@@ -2920,38 +2920,38 @@
         </is>
       </c>
       <c r="E99" s="2" t="n">
-        <v>1764542601000</v>
+        <v>1764252047000</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>qu1lGf</t>
+          <t>8W9Abu</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Monza Circuit</t>
+          <t>Nurburgring Nordschleife</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Grand Prix</t>
+          <t>24h</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>WTCR</t>
+          <t>Hyper Car</t>
         </is>
       </c>
       <c r="E100" s="2" t="n">
-        <v>1764544425000</v>
+        <v>1764252993000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>RjYqx6</t>
+          <t>lX2lQ7</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
@@ -2966,11 +2966,3286 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>DTM 1992</t>
+          <t>GTR 3</t>
         </is>
       </c>
       <c r="E101" s="2" t="n">
-        <v>1764544572000</v>
+        <v>1764253918000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>UyaP6d</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>1764257411000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>E9ED1N</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>1764257536000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>nVlkpo</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>1764258214000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>XLeVto</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>1764258323000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>A01L5h</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>1764260187000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Rh84Bq</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>1764262022000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>C0AJaf</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>1764263641000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Flt6cY</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>1764264616000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>5Ivvza</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>1764264695000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>dNKmNE</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>1764264707000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>XwQvFt</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>1764267194000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>3Oh7h4</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>1764269198000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>4wlacj</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>1764269985000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>VX8tJQ</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>1764271814000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2L266s</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>1764272749000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>swP5bC</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>1764274585000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>dcn4We</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>1764275328000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>h8PzBb</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>1764276448000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>ipP1ue</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>1764276467000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>D6nWuM</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>1764277142000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>mvTzW0</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>1764277209000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>XO2B1m</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>1764278042000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Ru00DZ</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>1764278107000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>XnfagD</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>1764281794000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>nkNdoN</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>1764283603000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>haBnAE</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>1764285425000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>oEy0ew</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1764286202000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>HQTkrQ</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>1764286352000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>24Ee3B</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>1764287909000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>cdIgNx</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>1764287920000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>bUYl0o</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>1764335773000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>w2LZJz</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>1764338460000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>LGSrWT</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>1764338490000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>slIX71</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>1764338572000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>X3hzfB</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>1764339303000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>cbasa6</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>1764341041000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>i5kD9L</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>1764342158000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>xaz9hG</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>1764343035000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>U72z0Z</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>1764343853000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>v1SJdG</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>1764346548000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>0a1PqZ</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>1764346669000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>UUEhcl</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>1764347534000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>ePUnsg</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>1764348403000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>oLEraj</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>1764350034000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>YqRlWq</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>1764350956000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>X1wcG1</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>1764351162000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>G7Frxt</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1764351845000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>CN1hAi</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C149" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>1764353660000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>filHks</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1764354566000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>3aLQu5</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1764358306000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>kr4KVf</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1764359970000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Ave8Ef</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>1764362601000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>f8eoVp</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>1764362676000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>xttBs9</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C155" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>1764363705000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>LItB0R</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>1764365520000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>4qiAYh</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>1764369958000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>JjVTat</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>1764370713000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>ayAw1K</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C159" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>1764372549000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>6myibz</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>1764374552000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>3zCerO</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>1764421363000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>hFAHnr</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>1764425694000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>E6hjUZ</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1764425828000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Dd07Pi</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>1764426580000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>85fD4t</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>1764427430000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>YJoXcC</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>1764428509000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Hc64Si</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>1764429258000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>XlUu8T</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>1764440167000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>1eLQK2</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>1764441122000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>wbW9Vt</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>1764441146000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>bXbYAK</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>1764443743000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>l8UnQt</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>1764443747000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>q9sOq3</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>1764445556000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>N9Fny9</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>1764446537000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>5IkNcm</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>1764447460000</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>PQuzuf</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>1764448983000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>KTelwK</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>1764449041000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>B9jfSJ</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>1764449057000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>ONICso</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>1764450165000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>bYQB0E</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>1764451050000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>gwCitk</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>1764456329000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>L7AULK</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>1764457128000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>lSG4Zk</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>1764457194000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>cXxbSZ</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>1764458106000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>OBmmSA</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C185" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>1764459851000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>xpkFLW</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>1764459983000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>qDblOD</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C187" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>1764461600000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>1YvgFW</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>1764462541000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>mZ1qYq</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>1764508423000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>j0Yp3Q</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>1764508528000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>qa9iVA</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>1764508537000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>XhvdLM</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>1764510260000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>E5Dxew</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C193" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>1764511305000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>cRRZn6</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>1764512977000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>qXgy6a</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C195" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>1764514941000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>tsVV1r</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>1764516649000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>awe042</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C197" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>1764517510000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>sXSwHW</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>1764517528000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Dqv3P7</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>1764518389000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>7VWkSk</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>1764519349000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>EDDhn0</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>1764519473000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>uaDfbl</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>1764521007000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>i2ddtA</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>1764521926000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>yNZy05</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>1764523034000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>YZiLSq</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>1764523869000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>x9ShGG</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>1764524803000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>rH31hk</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>1764527579000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>RMopzW</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>1764528280000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>0XJB8M</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>1764528359000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>WSjB2L</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>1764528373000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>ghC08E</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>1764528403000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>IhaX5e</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>1764531851000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>fHEhjf</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>1764532822000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>3dhVnM</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>1764533683000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>ZQKuzp</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>1764537433000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>J06cHF</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>1764537459000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>Ufusho</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>1764538239000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>m3KtTB</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>1764539261000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>UoDo1Y</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>1764541733000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>NzUEnm</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Nordschleife</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>1764542589000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>EuhYbf</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C221" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="inlineStr">
+        <is>
+          <t>Hyper Car</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>1764542678000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>RvdYk7</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>Monza Circuit</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>1764543515000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>X8VBaB</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C223" s="2" t="inlineStr">
+        <is>
+          <t>24h</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>1764543535000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>skFwm6</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>1764544615000</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>ZTRrQt</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>GTR 3</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>1764544640000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>IM6GcQ</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>1764546279000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>y8opiE</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>Nurburgring Nordschleife</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>1764547121000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>FeL1so</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>WTCR</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>1764547138000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>c98Wkp</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>1764547258000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>MzW8Gb</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>1764547376000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>LSjDOX</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>International</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>1764548068000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>SP0rgP</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Silverstone Circuit</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>Grand Prix</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>DTM 1992</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>1764549020000</v>
       </c>
     </row>
   </sheetData>
